--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value831.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value831.xlsx
@@ -351,7 +351,7 @@
         <v>0.9865996835960045</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>3.206721716419294</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value831.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value831.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9865996835960045</v>
+        <v>1.110176086425781</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.553109407424927</v>
       </c>
       <c r="C1">
-        <v>3.206721716419294</v>
+        <v>3.985412836074829</v>
       </c>
       <c r="D1">
-        <v>1.76273366397894</v>
+        <v>1.500030159950256</v>
       </c>
       <c r="E1">
-        <v>1.340465869082933</v>
+        <v>0.9808575510978699</v>
       </c>
     </row>
   </sheetData>
